--- a/application/plugins/Reports_summary_sell_stock/Reports_summary_sell_stock.xlsx
+++ b/application/plugins/Reports_summary_sell_stock/Reports_summary_sell_stock.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1356" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>{$v-&gt;rows[]-&gt;group_by}</t>
   </si>
@@ -37,21 +37,9 @@
     <t>{$v-&gt;total_stock}</t>
   </si>
   <si>
-    <t>{$v-&gt;rows[]-&gt;sell_sum}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;stock_sum}</t>
-  </si>
-  <si>
     <t>{$v-&gt;total_sell}</t>
   </si>
   <si>
-    <t>{$v-&gt;rows[]-&gt;sell_proc}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;stock_proc}</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -61,16 +49,58 @@
     <t>сумма</t>
   </si>
   <si>
-    <t>{$v-&gt;rows[]-&gt;sell_sum_qty}</t>
-  </si>
-  <si>
-    <t>{$v-&gt;rows[]-&gt;stock_sum_qty}</t>
-  </si>
-  <si>
     <t>{$v-&gt;total_sell_qty}</t>
   </si>
   <si>
     <t>{$v-&gt;total_stock_qty}</t>
+  </si>
+  <si>
+    <t>Подробный отчет</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;product_code}</t>
+  </si>
+  <si>
+    <t>Код</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;stock_qty}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;stock_entry_sum}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;sell_qty}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;sell_prod_sum}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;summary_rows[]-&gt;group_by}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;summary_rows[]-&gt;sell_proc}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;summary_rows[]-&gt;sell_sum_qty}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;summary_rows[]-&gt;sell_sum}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;summary_rows[]-&gt;stock_proc}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;summary_rows[]-&gt;stock_sum_qty}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;summary_rows[]-&gt;stock_sum}</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;ru}</t>
+  </si>
+  <si>
+    <t>Название</t>
   </si>
 </sst>
 </file>
@@ -131,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -155,21 +185,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -297,9 +312,42 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -313,9 +361,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -327,78 +373,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -461,7 +542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,7 +577,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -705,128 +786,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H7"/>
+  <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="8" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="9" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="25"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="23"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="8">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>14</v>
+      <c r="I5" s="11" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>6</v>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:9" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="28"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="34"/>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="13">
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/application/plugins/Reports_summary_sell_stock/Reports_summary_sell_stock.xlsx
+++ b/application/plugins/Reports_summary_sell_stock/Reports_summary_sell_stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1356" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="2472" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>Подробный отчет</t>
   </si>
   <si>
-    <t>{$v-&gt;rows[]-&gt;product_code}</t>
-  </si>
-  <si>
     <t>Код</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>Название</t>
+  </si>
+  <si>
+    <t>{$v-&gt;rows[]-&gt;_product_code}</t>
   </si>
 </sst>
 </file>
@@ -415,6 +415,51 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -435,51 +480,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,7 +789,7 @@
   <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,35 +800,35 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="20" t="s">
+      <c r="E3" s="36"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="23"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="28"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="29"/>
       <c r="D4" s="12" t="s">
         <v>8</v>
@@ -850,10 +850,10 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="8">
         <v>1</v>
       </c>
@@ -874,27 +874,27 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -909,42 +909,42 @@
     </row>
     <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:9" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32" t="s">
+      <c r="C11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="35"/>
+      <c r="I11" s="21"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="13" t="s">
         <v>9</v>
       </c>
@@ -959,27 +959,27 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="34"/>
+      <c r="C13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="22"/>
       <c r="F13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="H13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="I13" s="36" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -994,11 +994,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="C11:C12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B3:C4"/>
@@ -1007,6 +1002,11 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="B10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/application/plugins/Reports_summary_sell_stock/Reports_summary_sell_stock.xlsx
+++ b/application/plugins/Reports_summary_sell_stock/Reports_summary_sell_stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="3588" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>кол-во</t>
   </si>
   <si>
-    <t>сумма</t>
-  </si>
-  <si>
     <t>{$v-&gt;total_sell_qty}</t>
   </si>
   <si>
@@ -101,6 +98,9 @@
   </si>
   <si>
     <t>{$v-&gt;rows[]-&gt;_product_code}</t>
+  </si>
+  <si>
+    <t>сумма без НДС</t>
   </si>
 </sst>
 </file>
@@ -424,6 +424,51 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,51 +480,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,7 +789,7 @@
   <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,36 +800,36 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="35" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="38"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
-      <c r="C4" s="29"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
@@ -837,7 +837,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>8</v>
@@ -846,19 +846,19 @@
         <v>9</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="8">
         <v>1</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>7</v>
@@ -867,34 +867,34 @@
         <v>1</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -909,53 +909,53 @@
     </row>
     <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:9" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
+      <c r="B10" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="20" t="s">
+      <c r="C11" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20" t="s">
+      <c r="G11" s="35"/>
+      <c r="H11" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
       <c r="F12" s="13" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -963,23 +963,23 @@
         <v>0</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="37"/>
       <c r="F13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>15</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -994,6 +994,9 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B3:C4"/>
@@ -1004,9 +1007,6 @@
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/application/plugins/Reports_summary_sell_stock/Reports_summary_sell_stock.xlsx
+++ b/application/plugins/Reports_summary_sell_stock/Reports_summary_sell_stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3588" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="4704" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -424,6 +424,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -476,10 +479,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,7 +789,7 @@
   <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,36 +800,36 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="25"/>
+      <c r="D3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="31" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="34"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
@@ -850,10 +850,10 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="8">
         <v>1</v>
       </c>
@@ -874,10 +874,10 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="28"/>
       <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
@@ -909,42 +909,42 @@
     </row>
     <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:9" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="35" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35" t="s">
+      <c r="G11" s="36"/>
+      <c r="H11" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="36"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="13" t="s">
         <v>9</v>
       </c>
@@ -965,10 +965,10 @@
       <c r="C13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="7" t="s">
         <v>16</v>
       </c>
@@ -994,16 +994,16 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="F11:G11"/>

--- a/application/plugins/Reports_summary_sell_stock/Reports_summary_sell_stock.xlsx
+++ b/application/plugins/Reports_summary_sell_stock/Reports_summary_sell_stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4704" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="5820" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
     <t>{$v-&gt;rows[]-&gt;_product_code}</t>
   </si>
   <si>
-    <t>сумма без НДС</t>
+    <t>сумма</t>
   </si>
 </sst>
 </file>
@@ -424,62 +424,62 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,7 +789,7 @@
   <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:E13"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,36 +800,36 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="32" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="32" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="35"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="22"/>
-      <c r="C4" s="26"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
@@ -850,10 +850,10 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="8">
         <v>1</v>
       </c>
@@ -874,10 +874,10 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="28"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
@@ -909,42 +909,42 @@
     </row>
     <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:9" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="36" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36" t="s">
+      <c r="G11" s="37"/>
+      <c r="H11" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="37"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
       <c r="F12" s="13" t="s">
         <v>9</v>
       </c>
@@ -965,10 +965,10 @@
       <c r="C13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="38"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="7" t="s">
         <v>16</v>
       </c>
@@ -994,11 +994,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="C11:C12"/>
@@ -1007,6 +1002,11 @@
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
